--- a/Honey Production Aggregations.xlsx
+++ b/Honey Production Aggregations.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbettadapura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BC26BF19-4ADA-4455-9DAA-4E132C9ABA16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB986CA-DB58-48A1-8F65-8E04562ABF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="honeyProduction" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -211,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -751,9 +764,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -791,7 +804,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -897,7 +910,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1039,34 +1052,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.2109375" customWidth="1"/>
+    <col min="5" max="5" width="14.0703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.78515625" customWidth="1"/>
+    <col min="11" max="11" width="9.78515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1132,7 @@
         <v>1156000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1159,7 @@
         <v>3224000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1186,7 @@
         <v>4628000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1241,7 +1254,7 @@
         <v>North Dakota</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1292,7 @@
         <v>North Dakota</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1326,7 @@
         <v>255225000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1347,7 +1360,7 @@
         <v>2967732.5581395347</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1374,7 +1387,7 @@
         <v>5760000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1412,7 +1425,7 @@
         <v>South Dakota</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1450,7 +1463,7 @@
         <v>Maine</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1484,7 +1497,7 @@
         <v>66.120481927710841</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1515,7 +1528,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1555,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1576,7 +1589,7 @@
         <v>396477000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1610,7 +1623,7 @@
         <v>4719964.2857142854</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1637,7 +1650,7 @@
         <v>276000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1677,7 @@
         <v>6205000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1691,7 +1704,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1718,7 +1731,7 @@
         <v>1314000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1745,7 +1758,7 @@
         <v>1560000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1772,7 +1785,7 @@
         <v>8540000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1799,7 +1812,7 @@
         <v>4466000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1826,7 +1839,7 @@
         <v>405000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1853,7 +1866,7 @@
         <v>440000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1880,7 +1893,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1904,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1931,7 +1944,7 @@
         <v>414000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1958,7 +1971,7 @@
         <v>26775000</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1985,7 +1998,7 @@
         <v>1480000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2012,7 +2025,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2039,7 +2052,7 @@
         <v>2565000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2066,7 +2079,7 @@
         <v>1680000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2093,7 +2106,7 @@
         <v>23296000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2120,7 +2133,7 @@
         <v>408000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2147,7 +2160,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2174,7 +2187,7 @@
         <v>1170000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2201,7 +2214,7 @@
         <v>396000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2228,7 +2241,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2255,7 +2268,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2282,7 +2295,7 @@
         <v>234000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2309,7 +2322,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2336,7 +2349,7 @@
         <v>2664000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2363,7 +2376,7 @@
         <v>1248000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2390,7 +2403,7 @@
         <v>2360000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2417,7 +2430,7 @@
         <v>4836000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2444,7 +2457,7 @@
         <v>30800000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -2471,7 +2484,7 @@
         <v>1740000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2498,7 +2511,7 @@
         <v>24360000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>3135000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2552,7 +2565,7 @@
         <v>784000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -2579,7 +2592,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -2606,7 +2619,7 @@
         <v>488000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2633,7 +2646,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2660,7 +2673,7 @@
         <v>2010000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2687,7 +2700,7 @@
         <v>1020000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2714,7 +2727,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2741,7 +2754,7 @@
         <v>4042000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2781,7 @@
         <v>231000</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -2795,7 +2808,7 @@
         <v>276000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -2822,7 +2835,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -2849,7 +2862,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -2876,7 +2889,7 @@
         <v>1224000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -2903,7 +2916,7 @@
         <v>1725000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -2930,7 +2943,7 @@
         <v>10912000</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -2957,7 +2970,7 @@
         <v>4350000</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -2984,7 +2997,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -3011,7 +3024,7 @@
         <v>385000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -3038,7 +3051,7 @@
         <v>960000</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -3065,7 +3078,7 @@
         <v>4640000</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -3092,7 +3105,7 @@
         <v>539000</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -3119,7 +3132,7 @@
         <v>34500000</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>37</v>
       </c>
@@ -3146,7 +3159,7 @@
         <v>1170000</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -3173,7 +3186,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -3200,7 +3213,7 @@
         <v>2448000</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -3227,7 +3240,7 @@
         <v>1125000</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -3254,7 +3267,7 @@
         <v>28435000</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -3281,7 +3294,7 @@
         <v>549000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -3308,7 +3321,7 @@
         <v>8295000</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -3335,7 +3348,7 @@
         <v>984000</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>46</v>
       </c>
@@ -3362,7 +3375,7 @@
         <v>413000</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -3389,7 +3402,7 @@
         <v>294000</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>48</v>
       </c>
@@ -3416,7 +3429,7 @@
         <v>2808000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -3443,7 +3456,7 @@
         <v>378000</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>50</v>
       </c>
@@ -3470,7 +3483,7 @@
         <v>7560000</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>51</v>
       </c>
